--- a/Design/主要算法流程分析.xlsx
+++ b/Design/主要算法流程分析.xlsx
@@ -11143,29 +11143,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>释放</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>执行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>标记</a:t>
+            <a:t>释放执行标记</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
@@ -11481,13 +11459,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>100013</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>147639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1839</xdr:rowOff>
     </xdr:to>
@@ -11498,7 +11476,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="1690689"/>
+          <a:off x="8329613" y="1690689"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11544,15 +11522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>35721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61371</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11561,7 +11539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="2436021"/>
+          <a:off x="8329613" y="3400955"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11599,28 +11577,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>37306</xdr:colOff>
+      <xdr:colOff>51595</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2633</xdr:rowOff>
+      <xdr:rowOff>2632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38894</xdr:colOff>
+      <xdr:colOff>53183</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>36515</xdr:rowOff>
+      <xdr:rowOff>146315</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="73" name="直接箭头连接符 72"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="71" idx="2"/>
-          <a:endCxn id="72" idx="0"/>
+          <a:endCxn id="135" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8850834" y="2333355"/>
-          <a:ext cx="205332" cy="1588"/>
+          <a:off x="8810222" y="2388255"/>
+          <a:ext cx="315133" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11649,15 +11627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11666,7 +11644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="3143250"/>
+          <a:off x="8329613" y="4256088"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11712,15 +11690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>37307</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>62164</xdr:rowOff>
+      <xdr:colOff>51595</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38895</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57943</xdr:rowOff>
+      <xdr:colOff>53183</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142081</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11732,8 +11710,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8869886" y="3059635"/>
-          <a:ext cx="167229" cy="1588"/>
+          <a:off x="8810222" y="4098521"/>
+          <a:ext cx="315133" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11762,15 +11740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>149475</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>164821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11779,7 +11757,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="4067175"/>
+          <a:off x="8329613" y="5111221"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11817,15 +11795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>37307</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83593</xdr:rowOff>
+      <xdr:colOff>51595</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38895</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>124618</xdr:rowOff>
+      <xdr:colOff>53183</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139964</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11837,8 +11815,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8761538" y="3875212"/>
-          <a:ext cx="383925" cy="1588"/>
+          <a:off x="8810222" y="4953654"/>
+          <a:ext cx="315133" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11931,7 +11909,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>100013</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>127125</xdr:rowOff>
     </xdr:to>
@@ -11946,7 +11924,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5829299" y="1960689"/>
-          <a:ext cx="2486026" cy="5710236"/>
+          <a:ext cx="2500314" cy="5710236"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -12223,15 +12201,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>147639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1839</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>162704</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12240,7 +12218,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="5119689"/>
+          <a:off x="8329613" y="5966354"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12286,15 +12264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>35721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>61371</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12303,7 +12281,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="5865021"/>
+          <a:off x="8329613" y="2545822"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -12340,31 +12318,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>37306</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>2633</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38894</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>36515</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>64154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="136" name="直接箭头连接符 135"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="134" idx="2"/>
+          <a:stCxn id="134" idx="3"/>
+          <a:endCxn id="135" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8850834" y="5762355"/>
-          <a:ext cx="205332" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:xfrm flipV="1">
+          <a:off x="9605962" y="2815822"/>
+          <a:ext cx="1588" cy="3420532"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14395466"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -12390,15 +12371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>37306</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>150269</xdr:rowOff>
+      <xdr:colOff>51595</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38894</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>148433</xdr:rowOff>
+      <xdr:colOff>53183</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137847</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12410,8 +12391,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8697243" y="4863432"/>
-          <a:ext cx="512514" cy="1588"/>
+          <a:off x="8810222" y="5808787"/>
+          <a:ext cx="315133" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12439,16 +12420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12457,7 +12438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9801225" y="5876925"/>
+          <a:off x="8934450" y="3067050"/>
           <a:ext cx="276225" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12499,29 +12480,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>134271</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>677862</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>134271</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>62036</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="143" name="直接箭头连接符 142"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="135" idx="3"/>
-          <a:endCxn id="72" idx="3"/>
+          <a:stCxn id="135" idx="1"/>
+          <a:endCxn id="149" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9591674" y="2706021"/>
-          <a:ext cx="1588" cy="3429000"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8329613" y="2815821"/>
+          <a:ext cx="1588" cy="4275665"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -12612,15 +12593,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25650</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12629,7 +12610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324850" y="6858000"/>
+          <a:off x="8329613" y="6821487"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12682,28 +12663,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>61370</xdr:rowOff>
+      <xdr:colOff>51595</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>53183</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144198</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="150" name="直接箭头连接符 149"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="135" idx="2"/>
-          <a:endCxn id="149" idx="0"/>
+          <a:endCxn id="72" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8731773" y="6626747"/>
-          <a:ext cx="452979" cy="9525"/>
+        <a:xfrm rot="5400000">
+          <a:off x="8810222" y="3243388"/>
+          <a:ext cx="315133" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12732,15 +12713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>100013</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:rowOff>132820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>54225</xdr:rowOff>
+      <xdr:rowOff>158470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12749,7 +12730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324850" y="7572375"/>
+          <a:off x="8329613" y="7676620"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12807,15 +12788,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>92325</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>130703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>156353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12824,7 +12805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324850" y="8296275"/>
+          <a:off x="8329613" y="8531753"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12870,15 +12851,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46832</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>26443</xdr:rowOff>
+      <xdr:colOff>51595</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>48420</xdr:colOff>
+      <xdr:colOff>53183</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>29368</xdr:rowOff>
+      <xdr:rowOff>133613</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12890,8 +12871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8875838" y="7485187"/>
-          <a:ext cx="174375" cy="1588"/>
+          <a:off x="8810222" y="7519053"/>
+          <a:ext cx="315133" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12920,15 +12901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46831</xdr:colOff>
+      <xdr:colOff>51595</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>55019</xdr:rowOff>
+      <xdr:rowOff>159263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>48419</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>67469</xdr:rowOff>
+      <xdr:colOff>53183</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>131496</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12940,8 +12921,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8871075" y="8204325"/>
-          <a:ext cx="183900" cy="1588"/>
+          <a:off x="8810222" y="8374186"/>
+          <a:ext cx="315133" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12969,16 +12950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12987,7 +12968,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="6381750"/>
+          <a:off x="8077200" y="2486025"/>
           <a:ext cx="276225" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13030,13 +13011,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>100013</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>128589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>154239</xdr:rowOff>
     </xdr:to>
@@ -13047,7 +13028,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8324850" y="9386889"/>
+          <a:off x="8329613" y="9386889"/>
           <a:ext cx="1276349" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13115,13 +13096,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:colOff>100013</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>55689</xdr:rowOff>
     </xdr:to>
@@ -13135,8 +13116,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3800476" y="9648825"/>
-          <a:ext cx="4524375" cy="8064"/>
+          <a:off x="3800475" y="9648825"/>
+          <a:ext cx="4529138" cy="8064"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13165,13 +13146,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46831</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>93119</xdr:rowOff>
+      <xdr:colOff>51594</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>157147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>48419</xdr:colOff>
+      <xdr:colOff>53182</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>129383</xdr:rowOff>
     </xdr:to>
@@ -13185,13 +13166,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8687718" y="9111582"/>
-          <a:ext cx="550614" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+          <a:off x="8810220" y="9229321"/>
+          <a:ext cx="315136" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -14002,8 +13981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H3:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
